--- a/12-22-24 to 12-28-24 Madison Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Madison Schedule.xlsx
@@ -1343,12 +1343,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1382,15 +1383,10 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
@@ -1419,16 +1415,8 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -1490,7 +1478,11 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1523,7 +1515,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1558,7 +1550,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>EDGERTON TRAVEL PLAZA</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1593,7 +1585,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>EDGERTON TRAVEL PLAZA</t>
+          <t>568 HAUGEN RD</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1624,7 +1616,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>568 HAUGEN RD</t>
+          <t>https://goo.gl/maps/QxcXMA3387n</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -1668,7 +1660,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QxcXMA3387n</t>
+          <t>*IL Meet is 6:00 am at IL Office</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -1710,11 +1702,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>*IL Meet is 6:00 am at IL Office</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
@@ -1748,9 +1736,21 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -1785,19 +1785,15 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -1832,15 +1828,20 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -1873,22 +1874,9 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -1941,7 +1929,11 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START </t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -1974,7 +1966,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2009,7 +2001,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>MACTAGGART'S MARKET, MADISON</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2044,7 +2036,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>MACTAGGART'S MARKET, MADISON</t>
+          <t>230 W LAKELAWN PL</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2079,7 +2071,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>230 W LAKELAWN PL</t>
+          <t>https://goo.gl/maps/hKVwmybEEw72</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2114,7 +2106,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hKVwmybEEw72</t>
+          <t>*IL Meet is 5:30 am at IL Office</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2147,11 +2139,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2181,9 +2169,22 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
@@ -2214,18 +2215,18 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3, Equip</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -2256,22 +2257,9 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">

--- a/12-22-24 to 12-28-24 Madison Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,7 +950,7 @@
       <c r="W15" t="inlineStr">
         <is>
           <t>@ Store,
-Optima, Equip</t>
+Optima, Equip, Mad c-store after</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Mad c-store after</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -2702,6 +2702,382 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:30 AM APPROX START</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>TO FOLLOW CAPITOL CENTRE MARKET</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>CONTACT IS NAVJOT</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>BP, MADISON</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>2801 ATWOOD AVE</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/sLLPsKwH5GxQVQcm7</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>after Cap Centre</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>after Cap Centre</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-22-24 to 12-28-24 Madison Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Madison Schedule.xlsx
@@ -2842,7 +2842,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5 Financial</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>

--- a/12-22-24 to 12-28-24 Madison Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Madison Schedule.xlsx
@@ -2842,7 +2842,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>DC5 Financial</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>

--- a/12-22-24 to 12-28-24 Madison Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,10 +996,14 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>@ Store, Mad c-store after</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1044,14 +1048,10 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>@ Store, Mad c-store after</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1091,10 +1091,15 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1134,7 +1139,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -1182,15 +1187,10 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1270,16 +1270,8 @@
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1354,7 +1346,11 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1391,7 +1387,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1422,7 +1418,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #77, ABERG AVE MOBIL, MADISON</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1453,7 +1449,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>KELLEY #77, ABERG AVE MOBIL, MADISON</t>
+          <t>2601 SHOPKO DR</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1488,7 +1484,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2601 SHOPKO DR</t>
+          <t>https://goo.gl/maps/wunNn18A34r</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1523,7 +1519,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wunNn18A34r</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1556,11 +1552,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1590,9 +1582,22 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -1623,18 +1628,18 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store,
-Camry 3, Equip</t>
+          <t>Driver,
+Silver Van</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -1667,20 +1672,15 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -1707,12 +1707,12 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -1754,12 +1754,12 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -1797,12 +1797,12 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -1843,16 +1843,8 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -1906,7 +1898,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -1939,7 +1935,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -1974,7 +1970,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>RUPESH OWNS THE 2 WARRENS STORES</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2009,7 +2005,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>RUPESH OWNS THE 2 WARRENS STORES</t>
+          <t>WARRENS MALL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2044,7 +2040,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>WARRENS MALL</t>
+          <t>201 MAIN STREET</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2079,7 +2075,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>201 MAIN STREET</t>
+          <t>https://goo.gl/maps/3hsMf24bHG62</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2114,7 +2110,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3hsMf24bHG62</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2145,7 +2141,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2189,7 +2185,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>THE BERRY VINE, WARRENS</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2233,7 +2229,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>THE BERRY VINE, WARRENS</t>
+          <t>1800 JELLYSTONE PARK DR</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2264,7 +2260,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>1800 JELLYSTONE PARK DR</t>
+          <t>https://goo.gl/maps/5jeXrSrPmPP2</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2295,7 +2291,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5jeXrSrPmPP2</t>
+          <t>APPROX 12:00/12:30 PM START</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -2326,7 +2322,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>APPROX 12:00/12:30 PM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -2357,7 +2353,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>GARY OWNS THIS STORE</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -2388,7 +2384,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>GARY OWNS THIS STORE</t>
+          <t>TOMAH MINI MART (BP)</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -2419,7 +2415,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>TOMAH MINI MART (BP)</t>
+          <t>215 W CLIFTON ST</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -2450,7 +2446,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>215 W CLIFTON ST</t>
+          <t>https://goo.gl/maps/AX6Vi8Q1tqzcScAQ7</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -2481,7 +2477,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AX6Vi8Q1tqzcScAQ7</t>
+          <t>6:00 am meet for Sarah &amp; Aivy at *WI Dells Walmart</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -2510,11 +2506,7 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>6:00 am meet for Sarah &amp; Aivy at *WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -2540,9 +2532,21 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -2569,17 +2573,17 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -2608,17 +2612,17 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -2647,17 +2651,17 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -2684,21 +2688,9 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -2751,7 +2743,11 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:30 AM APPROX START</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -2780,7 +2776,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>10:30 AM - 11:30 AM APPROX START</t>
+          <t>TO FOLLOW CAPITOL CENTRE MARKET</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -2811,7 +2807,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>TO FOLLOW CAPITOL CENTRE MARKET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -2842,7 +2838,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONTACT IS NAVJOT</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -2873,7 +2869,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>CONTACT IS NAVJOT</t>
+          <t>BP, MADISON</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -2904,7 +2900,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>BP, MADISON</t>
+          <t>2801 ATWOOD AVE</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -2935,7 +2931,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>2801 ATWOOD AVE</t>
+          <t>https://maps.app.goo.gl/sLLPsKwH5GxQVQcm7</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -2964,11 +2960,7 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/sLLPsKwH5GxQVQcm7</t>
-        </is>
-      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -2994,9 +2986,21 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>after Cap Centre</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -3023,12 +3027,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -3038,45 +3042,6 @@
       </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>after Cap Centre</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12-22-24 to 12-28-24 Madison Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Madison Schedule.xlsx
@@ -1230,12 +1230,12 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store @7</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2477,7 +2477,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>6:00 am meet for Sarah &amp; Aivy at *WI Dells Walmart</t>
+          <t>6:00 am meet for Lori &amp; Aivy at *WI Dells Walmart</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
